--- a/Bookie_2024.xlsx
+++ b/Bookie_2024.xlsx
@@ -1,72 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david borders\PycharmProjects\Mafia\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB24E7EC-5273-4D74-837F-9C4B5689A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Team_Bet</t>
-  </si>
-  <si>
-    <t>Amount_Bet</t>
-  </si>
-  <si>
-    <t>Winning_Return</t>
-  </si>
-  <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
-    <t>NationalsvPhillies</t>
-  </si>
-  <si>
-    <t>Phillies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,43 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,53 +424,959 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Game</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Team_Bet</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Amount_Bet</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Winning_Return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>initializevtest</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>tests</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PiratesvBlue</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pirates</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>26.2171184492658</v>
+      </c>
+      <c r="F3" t="n">
+        <v>35.65528109100149</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>TigersvRed</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tigers</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>18.24832449963324</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25.54765429948654</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NationalsvGuardians</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Nationals</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>18.11655015169294</v>
+      </c>
+      <c r="F5" t="n">
+        <v>32.60979027304729</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RaysvOrioles</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>14.20660998604186</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.599060801379638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B7" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RedsvCubs</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reds</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>10.47721447659697</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12.99174595098024</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CardinalsvPhillies</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Cardinals</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.902148853474159</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.24343816555866</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>19.442647962822338</v>
-      </c>
-      <c r="F2">
-        <v>55.749304657857508</v>
+      <c r="B9" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DiamondbacksvMets</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Diamondbacks</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3.83203358329504</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.908674254960941</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PiratesvBlue</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pirates</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>64.56396765564394</v>
+      </c>
+      <c r="F10" t="n">
+        <v>87.80699601167576</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>RaysvOrioles</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>35.43603234435607</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.87409403972597</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>AthleticsvBraves</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>37.26328376256688</v>
+      </c>
+      <c r="F12" t="n">
+        <v>74.52656752513376</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PiratesvBlue</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pirates</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>25.34545326126217</v>
+      </c>
+      <c r="F13" t="n">
+        <v>35.99054363099228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>TwinsvAstros</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Twins</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>20.33699801484639</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24.40439761781567</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45445</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RaysvOrioles</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>17.05426496132455</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12.01004574741165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>BrewersvPhillies</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Brewers</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>77.31577176569763</v>
+      </c>
+      <c r="F16" t="n">
+        <v>139.1683891782558</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>OriolesvBlue</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>22.68422823430236</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19.7254158559151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DodgersvPirates</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pirates</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CardinalsvAstros</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Cardinals</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>38.51184922321541</v>
+      </c>
+      <c r="F19" t="n">
+        <v>55.84218137366235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BrewersvPhillies</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Brewers</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>34.63824276206432</v>
+      </c>
+      <c r="F20" t="n">
+        <v>53.34289385357905</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MetsvNationals</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Nationals</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>19.88130554826033</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23.8575666579124</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RedsvRockies</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Reds</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4.397232320747569</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.382486400575053</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BravesvRed</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Braves</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2.571370145712374</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.337609223374885</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>OriolesvBlue</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>34.93138115326911</v>
+      </c>
+      <c r="F24" t="n">
+        <v>31.1887331725617</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DodgersvPirates</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Pirates</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>33.59079481786918</v>
+      </c>
+      <c r="F25" t="n">
+        <v>51.72982401951854</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MarinersvAthletics</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mariners</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>13.18597729834845</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.28589950587919</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BravesvNationals</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Nationals</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>12.76973632888844</v>
+      </c>
+      <c r="F27" t="n">
+        <v>18.13302558702158</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RoyalsvGuardians</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Royals</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.522110401624831</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7.17874352211228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>OriolesvRays</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>35.95629925561891</v>
+      </c>
+      <c r="F29" t="n">
+        <v>26.6342957449029</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>TwinsvPirates</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Pirates</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>28.98029819681019</v>
+      </c>
+      <c r="F30" t="n">
+        <v>31.87832801649121</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GiantsvRangers</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Giants</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>23.70182879701937</v>
+      </c>
+      <c r="F31" t="n">
+        <v>26.07201167672131</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45451</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BluevAthletics</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>11.36157375055154</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15.90620325077216</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RockiesvTwins</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Rockies</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>61.85237841997515</v>
+      </c>
+      <c r="F33" t="n">
+        <v>123.7047568399503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NationalsvTigers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Nationals</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.05254652862203</v>
+      </c>
+      <c r="F34" t="n">
+        <v>17.15990304262911</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AthleticsvPadres</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Athletics</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>12.46917314766979</v>
+      </c>
+      <c r="F35" t="n">
+        <v>19.95067703627166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BravesvOrioles</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>10.17076485669768</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.533899893850134</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CubsvRays</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Cubs</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.4551370470353654</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.4551370470353654</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NationalsvTigers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Nationals</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>53.97721442651602</v>
+      </c>
+      <c r="F38" t="n">
+        <v>70.17037875447083</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BravesvOrioles</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Orioles</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>46.02278557348398</v>
+      </c>
+      <c r="F39" t="n">
+        <v>39.0023606554949</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>